--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="C6:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
